--- a/cma_9600_3_1_nohb.xlsx
+++ b/cma_9600_3_1_nohb.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC892D60-BCF9-0A42-B918-75FF1BC74EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="s75 1000 2600 1100" sheetId="24" r:id="rId1"/>
@@ -65,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,18 +605,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -655,7 +639,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -663,33 +647,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1627,8 +1589,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
@@ -2570,27 +2531,18 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1754744176"/>
-        <c:axId val="1754339472"/>
+        <c:dLbls/>
+        <c:axId val="121095296"/>
+        <c:axId val="121097216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -3528,8 +3480,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
@@ -4472,32 +4423,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1813650112"/>
-        <c:axId val="1813669472"/>
+        <c:dLbls/>
+        <c:axId val="120265728"/>
+        <c:axId val="120263808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1754744176"/>
+        <c:axId val="121095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4539,7 +4481,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4547,30 +4489,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4605,16 +4525,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754339472"/>
+        <c:crossAx val="121097216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1754339472"/>
+        <c:axId val="121097216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4660,7 +4579,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4668,30 +4587,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4726,16 +4624,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754744176"/>
+        <c:crossAx val="121095296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1813669472"/>
+        <c:axId val="120263808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -4768,7 +4665,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4776,30 +4673,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4834,22 +4709,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813650112"/>
+        <c:crossAx val="120265728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1813650112"/>
+        <c:axId val="120265728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1813669472"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="120263808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4863,7 +4736,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4894,14 +4767,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4930,10 +4802,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -5513,7 +5385,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5552,7 +5424,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5609,9 +5481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5649,7 +5521,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5683,7 +5555,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5718,10 +5589,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5894,16 +5764,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B20BF-DD24-9B45-85EB-8DC1C87F0292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="77" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5925,7 +5795,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>0</v>
       </c>
@@ -5991,7 +5861,7 @@
         <v>-6.0000000000000497E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>0.02</v>
       </c>
@@ -6025,7 +5895,7 @@
         <v>-1.120000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>0.04</v>
       </c>
@@ -6059,7 +5929,7 @@
         <v>-1.160000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>0.06</v>
       </c>
@@ -6093,7 +5963,7 @@
         <v>-1.2600000000000007</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>0.08</v>
       </c>
@@ -6127,7 +5997,7 @@
         <v>-1.3200000000000012</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>0.1</v>
       </c>
@@ -6161,7 +6031,7 @@
         <v>-1.2800000000000011</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>0.12</v>
       </c>
@@ -6195,7 +6065,7 @@
         <v>-1.2800000000000011</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>0.14000000000000001</v>
       </c>
@@ -6229,7 +6099,7 @@
         <v>-1.2200000000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>0.16</v>
       </c>
@@ -6263,7 +6133,7 @@
         <v>-1.2000000000000011</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>0.18</v>
       </c>
@@ -6297,7 +6167,7 @@
         <v>-1.2800000000000011</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>0.2</v>
       </c>
@@ -6331,7 +6201,7 @@
         <v>-1.160000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>0.22</v>
       </c>
@@ -6365,7 +6235,7 @@
         <v>-1.160000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>0.24</v>
       </c>
@@ -6399,7 +6269,7 @@
         <v>-1.1800000000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>0.26</v>
       </c>
@@ -6433,7 +6303,7 @@
         <v>-1.0600000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>0.28000000000000003</v>
       </c>
@@ -6467,7 +6337,7 @@
         <v>-1.1000000000000005</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>0.3</v>
       </c>
@@ -6501,7 +6371,7 @@
         <v>-0.98000000000000043</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>0.32</v>
       </c>
@@ -6535,7 +6405,7 @@
         <v>-1.0200000000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>0.34</v>
       </c>
@@ -6569,7 +6439,7 @@
         <v>-1.0200000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>0.36</v>
       </c>
@@ -6603,7 +6473,7 @@
         <v>-1.0400000000000009</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22">
         <v>0.38</v>
       </c>
@@ -6637,7 +6507,7 @@
         <v>-0.92000000000000082</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23">
         <v>0.4</v>
       </c>
@@ -6671,7 +6541,7 @@
         <v>-0.84000000000000075</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24">
         <v>0.42</v>
       </c>
@@ -6705,7 +6575,7 @@
         <v>-0.94000000000000039</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25">
         <v>0.44</v>
       </c>
@@ -6739,7 +6609,7 @@
         <v>-0.92000000000000082</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26">
         <v>0.46</v>
       </c>
@@ -6773,7 +6643,7 @@
         <v>-0.94000000000000039</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27">
         <v>0.48</v>
       </c>
@@ -6807,7 +6677,7 @@
         <v>-0.80000000000000071</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28">
         <v>0.5</v>
       </c>
@@ -6841,7 +6711,7 @@
         <v>-0.88000000000000078</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29">
         <v>0.52</v>
       </c>
@@ -6875,7 +6745,7 @@
         <v>-0.86000000000000121</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30">
         <v>0.54</v>
       </c>
@@ -6909,7 +6779,7 @@
         <v>-0.88000000000000078</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31">
         <v>0.56000000000000005</v>
       </c>
@@ -6943,7 +6813,7 @@
         <v>-0.78000000000000114</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32">
         <v>0.57999999999999996</v>
       </c>
@@ -6977,7 +6847,7 @@
         <v>-0.78000000000000114</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14">
       <c r="B33">
         <v>0.6</v>
       </c>
@@ -7011,7 +6881,7 @@
         <v>-0.6800000000000006</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="B34">
         <v>0.62</v>
       </c>
@@ -7045,7 +6915,7 @@
         <v>-0.78000000000000114</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="B35">
         <v>0.64</v>
       </c>
@@ -7079,7 +6949,7 @@
         <v>-0.72000000000000064</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14">
       <c r="B36">
         <v>0.66</v>
       </c>
@@ -7113,7 +6983,7 @@
         <v>-0.66000000000000103</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14">
       <c r="B37">
         <v>0.68</v>
       </c>
@@ -7147,7 +7017,7 @@
         <v>-0.7400000000000011</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="B38">
         <v>0.7</v>
       </c>
@@ -7181,7 +7051,7 @@
         <v>-0.66000000000000103</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="B39">
         <v>0.72</v>
       </c>
@@ -7215,7 +7085,7 @@
         <v>-0.66000000000000103</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14">
       <c r="B40">
         <v>0.74</v>
       </c>
@@ -7249,7 +7119,7 @@
         <v>-0.62000000000000099</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14">
       <c r="B41">
         <v>0.76</v>
       </c>
@@ -7283,7 +7153,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="B42">
         <v>0.78</v>
       </c>
@@ -7317,7 +7187,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14">
       <c r="B43">
         <v>0.8</v>
       </c>
@@ -7351,7 +7221,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14">
       <c r="B44">
         <v>0.82</v>
       </c>
@@ -7385,7 +7255,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="B45">
         <v>0.84</v>
       </c>
@@ -7419,7 +7289,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14">
       <c r="B46">
         <v>0.86</v>
       </c>
@@ -7453,7 +7323,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47">
         <v>0.88</v>
       </c>
@@ -7487,7 +7357,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14">
       <c r="B48">
         <v>0.9</v>
       </c>
@@ -7521,7 +7391,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49">
         <v>0.92</v>
       </c>
@@ -7555,7 +7425,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50">
         <v>0.94</v>
       </c>
@@ -7589,7 +7459,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51">
         <v>0.96</v>
       </c>
@@ -7623,7 +7493,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52">
         <v>0.98</v>
       </c>
@@ -7657,7 +7527,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53">
         <v>1</v>
       </c>
@@ -7691,7 +7561,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54">
         <v>1.02</v>
       </c>
@@ -7725,7 +7595,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55">
         <v>1.04</v>
       </c>
@@ -7759,7 +7629,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56">
         <v>1.06</v>
       </c>
@@ -7793,7 +7663,7 @@
         <v>-0.38000000000000078</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57">
         <v>1.08</v>
       </c>
@@ -7827,7 +7697,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58">
         <v>1.1000000000000001</v>
       </c>
@@ -7861,7 +7731,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59">
         <v>1.1200000000000001</v>
       </c>
@@ -7895,7 +7765,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60">
         <v>1.1399999999999999</v>
       </c>
@@ -7929,7 +7799,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61">
         <v>1.1599999999999999</v>
       </c>
@@ -7963,7 +7833,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62">
         <v>1.18</v>
       </c>
@@ -7997,7 +7867,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63">
         <v>1.2</v>
       </c>
@@ -8031,7 +7901,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64">
         <v>1.22</v>
       </c>
@@ -8065,7 +7935,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65">
         <v>1.24</v>
       </c>
@@ -8099,7 +7969,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66">
         <v>1.26</v>
       </c>
@@ -8133,7 +8003,7 @@
         <v>-0.40000000000000036</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67">
         <v>1.28</v>
       </c>
@@ -8167,7 +8037,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68">
         <v>1.3</v>
       </c>
@@ -8201,7 +8071,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69">
         <v>1.32</v>
       </c>
@@ -8235,7 +8105,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70">
         <v>1.34</v>
       </c>
@@ -8269,7 +8139,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71">
         <v>1.36</v>
       </c>
@@ -8303,7 +8173,7 @@
         <v>-0.38000000000000078</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72">
         <v>1.38</v>
       </c>
@@ -8337,7 +8207,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73">
         <v>1.4</v>
       </c>
@@ -8371,7 +8241,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74">
         <v>1.42</v>
       </c>
@@ -8405,7 +8275,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75">
         <v>1.44</v>
       </c>
@@ -8439,7 +8309,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76">
         <v>1.46</v>
       </c>
@@ -8473,7 +8343,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77">
         <v>1.48</v>
       </c>
@@ -8507,7 +8377,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78">
         <v>1.5</v>
       </c>
@@ -8541,7 +8411,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79">
         <v>1.52</v>
       </c>
@@ -8575,7 +8445,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80">
         <v>1.54</v>
       </c>
@@ -8609,7 +8479,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81">
         <v>1.56</v>
       </c>
@@ -8643,7 +8513,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82">
         <v>1.58</v>
       </c>
@@ -8677,7 +8547,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83">
         <v>1.6</v>
       </c>
@@ -8711,7 +8581,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84">
         <v>1.62</v>
       </c>
@@ -8745,7 +8615,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85">
         <v>1.64</v>
       </c>
@@ -8779,7 +8649,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86">
         <v>1.66</v>
       </c>
@@ -8813,7 +8683,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87">
         <v>1.68</v>
       </c>
@@ -8847,7 +8717,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88">
         <v>1.7</v>
       </c>
@@ -8881,7 +8751,7 @@
         <v>-0.44000000000000039</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89">
         <v>1.72</v>
       </c>
@@ -8915,7 +8785,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90">
         <v>1.74</v>
       </c>
@@ -8949,7 +8819,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91">
         <v>1.76</v>
       </c>
@@ -8983,7 +8853,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92">
         <v>1.78</v>
       </c>
@@ -9017,7 +8887,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93">
         <v>1.8</v>
       </c>
@@ -9051,7 +8921,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94">
         <v>1.82</v>
       </c>
@@ -9085,7 +8955,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95">
         <v>1.84</v>
       </c>
@@ -9119,7 +8989,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96">
         <v>1.86</v>
       </c>
@@ -9153,7 +9023,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97">
         <v>1.88</v>
       </c>
@@ -9187,7 +9057,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98">
         <v>1.9</v>
       </c>
@@ -9221,7 +9091,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99">
         <v>1.92</v>
       </c>
@@ -9255,7 +9125,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100">
         <v>1.94</v>
       </c>
@@ -9289,7 +9159,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101">
         <v>1.96</v>
       </c>
@@ -9323,7 +9193,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102">
         <v>1.98</v>
       </c>
@@ -9357,7 +9227,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103">
         <v>2</v>
       </c>
@@ -9391,7 +9261,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104">
         <v>2.02</v>
       </c>
@@ -9425,7 +9295,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105">
         <v>2.04</v>
       </c>
@@ -9459,7 +9329,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106">
         <v>2.06</v>
       </c>
@@ -9493,7 +9363,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107">
         <v>2.08</v>
       </c>
@@ -9527,7 +9397,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108">
         <v>2.1</v>
       </c>
@@ -9561,7 +9431,7 @@
         <v>-0.62000000000000099</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109">
         <v>2.12</v>
       </c>
@@ -9595,7 +9465,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110">
         <v>2.14</v>
       </c>
@@ -9629,7 +9499,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111">
         <v>2.16</v>
       </c>
@@ -9663,7 +9533,7 @@
         <v>-0.42000000000000082</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112">
         <v>2.1800000000000002</v>
       </c>
@@ -9697,7 +9567,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113">
         <v>2.2000000000000002</v>
       </c>
@@ -9731,7 +9601,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14">
       <c r="B114">
         <v>2.2200000000000002</v>
       </c>
@@ -9765,7 +9635,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115">
         <v>2.2400000000000002</v>
       </c>
@@ -9799,7 +9669,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116">
         <v>2.2599999999999998</v>
       </c>
@@ -9833,7 +9703,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117">
         <v>2.2799999999999998</v>
       </c>
@@ -9867,7 +9737,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118">
         <v>2.2999999999999998</v>
       </c>
@@ -9901,7 +9771,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119">
         <v>2.3199999999999998</v>
       </c>
@@ -9935,7 +9805,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14">
       <c r="B120">
         <v>2.34</v>
       </c>
@@ -9969,7 +9839,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121">
         <v>2.36</v>
       </c>
@@ -10003,7 +9873,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122">
         <v>2.38</v>
       </c>
@@ -10037,7 +9907,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123">
         <v>2.4</v>
       </c>
@@ -10071,7 +9941,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124">
         <v>2.42</v>
       </c>
@@ -10105,7 +9975,7 @@
         <v>-0.6800000000000006</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125">
         <v>2.44</v>
       </c>
@@ -10139,7 +10009,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126">
         <v>2.46</v>
       </c>
@@ -10173,7 +10043,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127">
         <v>2.48</v>
       </c>
@@ -10207,7 +10077,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128">
         <v>2.5</v>
       </c>
@@ -10241,7 +10111,7 @@
         <v>-0.62000000000000099</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129">
         <v>2.52</v>
       </c>
@@ -10275,7 +10145,7 @@
         <v>-0.50000000000000089</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130">
         <v>2.54</v>
       </c>
@@ -10309,7 +10179,7 @@
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131">
         <v>2.56</v>
       </c>
@@ -10343,7 +10213,7 @@
         <v>-0.64000000000000057</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132">
         <v>2.58</v>
       </c>
@@ -10363,7 +10233,7 @@
         <v>306</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J195" si="4">-($I$3*0.02)+(I132*0.02)</f>
+        <f t="shared" ref="J132:J152" si="4">-($I$3*0.02)+(I132*0.02)</f>
         <v>-1.9200000000000008</v>
       </c>
       <c r="L132">
@@ -10373,11 +10243,11 @@
         <v>376</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N195" si="5">-($I$3*0.02)+(M132*0.02)</f>
+        <f t="shared" ref="N132:N152" si="5">-($I$3*0.02)+(M132*0.02)</f>
         <v>-0.52000000000000046</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133">
         <v>2.6</v>
       </c>
@@ -10411,7 +10281,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134">
         <v>2.62</v>
       </c>
@@ -10445,7 +10315,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135">
         <v>2.64</v>
       </c>
@@ -10479,7 +10349,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136">
         <v>2.66</v>
       </c>
@@ -10513,7 +10383,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137">
         <v>2.68</v>
       </c>
@@ -10547,7 +10417,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138">
         <v>2.7</v>
       </c>
@@ -10581,7 +10451,7 @@
         <v>-0.64000000000000057</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139">
         <v>2.72</v>
       </c>
@@ -10615,7 +10485,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140">
         <v>2.74</v>
       </c>
@@ -10649,7 +10519,7 @@
         <v>-0.66000000000000103</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141">
         <v>2.76</v>
       </c>
@@ -10683,7 +10553,7 @@
         <v>-0.62000000000000099</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142">
         <v>2.78</v>
       </c>
@@ -10717,7 +10587,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143">
         <v>2.8</v>
       </c>
@@ -10751,7 +10621,7 @@
         <v>-0.46000000000000085</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144">
         <v>2.82</v>
       </c>
@@ -10785,7 +10655,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145">
         <v>2.84</v>
       </c>
@@ -10819,7 +10689,7 @@
         <v>-0.58000000000000096</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14">
       <c r="B146">
         <v>2.86</v>
       </c>
@@ -10853,7 +10723,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147">
         <v>2.88</v>
       </c>
@@ -10887,7 +10757,7 @@
         <v>-0.62000000000000099</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14">
       <c r="B148">
         <v>2.9</v>
       </c>
@@ -10921,7 +10791,7 @@
         <v>-0.64000000000000057</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149">
         <v>2.92</v>
       </c>
@@ -10955,7 +10825,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150">
         <v>2.94</v>
       </c>
@@ -10989,7 +10859,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151">
         <v>2.96</v>
       </c>
@@ -11023,7 +10893,7 @@
         <v>-0.54000000000000092</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152">
         <v>2.98</v>
       </c>

--- a/cma_9600_3_1_nohb.xlsx
+++ b/cma_9600_3_1_nohb.xlsx
@@ -2537,9 +2537,8 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="121095296"/>
-        <c:axId val="121097216"/>
+        <c:axId val="70517888"/>
+        <c:axId val="70519808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4429,12 +4428,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="120265728"/>
-        <c:axId val="120263808"/>
+        <c:axId val="70540288"/>
+        <c:axId val="70538368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121095296"/>
+        <c:axId val="70517888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -4525,12 +4523,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121097216"/>
+        <c:crossAx val="70519808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121097216"/>
+        <c:axId val="70519808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4624,12 +4622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121095296"/>
+        <c:crossAx val="70517888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120263808"/>
+        <c:axId val="70538368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,12 +4707,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120265728"/>
+        <c:crossAx val="70540288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120265728"/>
+        <c:axId val="70540288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4720,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120263808"/>
+        <c:crossAx val="70538368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4802,7 +4800,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5385,7 +5383,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,15 +5414,15 @@
       <cdr:y>0.68913</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35304</cdr:x>
-      <cdr:y>0.84992</cdr:y>
+      <cdr:x>0.38626</cdr:x>
+      <cdr:y>0.85036</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5432,8 +5430,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1651000" y="5715000"/>
-          <a:ext cx="3581400" cy="1333500"/>
+          <a:off x="1523718" y="5526856"/>
+          <a:ext cx="3759482" cy="1293043"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5767,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F152"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
